--- a/Total peraturan terkait IT pada kotakabupaten.xlsx
+++ b/Total peraturan terkait IT pada kotakabupaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\EPTI\JDIH_JABAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDFC898-5DB0-4F91-861F-8F908DCF0CA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA3BA6E-BBED-4DC1-91B6-89C633D6BC04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="0" windowWidth="17304" windowHeight="12504" xr2:uid="{7A1C8530-5054-435C-856C-BD02ACF13AB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7A1C8530-5054-435C-856C-BD02ACF13AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,6 +163,1171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1000"/>
+              <a:t>Peraturan terkait teknologi informasi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Kabupaten Bandung Barat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kabupaten Bandung</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kota Bandung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kota Banjar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kota Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Kabupaten Bekasi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kabupaten Bogor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kota Bogor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kabupaten Ciamis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kabupaten Cianjur</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Kota Cimahi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kabupaten Cirebon</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kota Cirebon</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kota Depok</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Kabupaten Garut</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Kabupaten Indramayu</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Kabupaten Karawang</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kabupaten Kuningan</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Kabupaten Majalengka</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Kabupaten Pangandaran</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Kabupaten Purwakarta</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Kota Sukabumi</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Kabupaten Sukabumi</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Kabupaten Sumedang</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Kabupaten Tasikmalaya</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Kota Tasikamalaya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A63-4777-855D-AB68C99FCDF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:axId val="7566111"/>
+        <c:axId val="1610414655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="7566111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610414655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1610414655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="7566111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA43CC03-A025-4520-828F-529F0FC20266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.94585</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F295D0B7-013C-48D5-831D-59604F81DC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4126230"/>
+          <a:ext cx="6118860" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Gambar 2. Jumlah</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> peraturan di setiap kota/kabupaten</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF0C27-0FE6-4BC2-A665-D3641C859B81}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -510,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -518,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -526,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -542,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -574,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -598,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -630,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +1819,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -670,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,11 +1843,18 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>SUM(B1:B26)</f>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>